--- a/铝/eta/氧化铝期货价格_月度数据.xlsx
+++ b/铝/eta/氧化铝期货价格_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>2717.95</v>
+        <v>2655.77</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2789.75</v>
+        <v>2788.64</v>
       </c>
       <c r="C3" t="n">
-        <v>2878.69</v>
+        <v>2897.99</v>
       </c>
     </row>
     <row r="4">
